--- a/5 control volumes-2hs/Nodalization-AP600-MELCOR.xlsx
+++ b/5 control volumes-2hs/Nodalization-AP600-MELCOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="712" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="712" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="test section" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t>total</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>Dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">injection steam </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +723,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1350,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1435,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,7 +1450,7 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1454,16 +1458,27 @@
         <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
         <v>0.76419999999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1">
+        <f>19*3.14159*0.476^2/4</f>
+        <v>3.3810922552399996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0.14935199999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <f>0.476*19</f>
+        <v>9.0440000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1471,7 +1486,7 @@
         <v>1.2847999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>

--- a/5 control volumes-2hs/Nodalization-AP600-MELCOR.xlsx
+++ b/5 control volumes-2hs/Nodalization-AP600-MELCOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="712" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="712" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="test section" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>total</t>
   </si>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>Dh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">injection steam </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +719,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1354,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1439,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1450,7 +1446,7 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1458,27 +1454,16 @@
         <f>((2.4384-0.91)-0.195)/2+0.195/2</f>
         <v>0.76419999999999999</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1">
-        <f>19*3.14159*0.476^2/4</f>
-        <v>3.3810922552399996</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>0.14935199999999998</v>
       </c>
-      <c r="E2">
-        <f>0.476*19</f>
-        <v>9.0440000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1486,7 +1471,7 @@
         <v>1.2847999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
